--- a/Семестровки/HeapSort/Graphics.xlsx
+++ b/Семестровки/HeapSort/Graphics.xlsx
@@ -44,11 +44,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,15 +71,36 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -134,11 +156,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,7 +240,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -230,7 +252,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -243,7 +265,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -254,7 +276,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>List(or array) Compare With LinkedList By Time</a:t>
+              <a:t>Comparison List (or array) With Linked List By Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -263,8 +285,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.174129353233831"/>
-          <c:y val="0.0297329077775911"/>
+          <c:x val="0.25415873015873"/>
+          <c:y val="0.0297781527619237"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -303,6 +325,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -959,6 +982,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1586,11 +1610,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="24292866"/>
-        <c:axId val="7447416"/>
+        <c:axId val="53182874"/>
+        <c:axId val="90884775"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24292866"/>
+        <c:axId val="53182874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1627,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1616,7 +1640,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1634,7 +1658,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1663,12 +1687,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7447416"/>
+        <c:crossAx val="90884775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7447416"/>
+        <c:axId val="90884775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1705,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1694,7 +1718,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1712,7 +1736,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1741,7 +1765,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24292866"/>
+        <c:crossAx val="53182874"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1778,7 +1802,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1790,7 +1814,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1803,7 +1827,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1814,7 +1838,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>List(or array) Compare With LinkedList By Amount Of Iterations</a:t>
+              <a:t>Comparison List (or array) With Linked List By Amount Of Iterations</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1823,8 +1847,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0875508543531326"/>
-          <c:y val="0.0297304106827916"/>
+          <c:x val="0.227229685743031"/>
+          <c:y val="0.0297555791710946"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1863,6 +1887,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2519,6 +2544,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3146,11 +3172,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26993672"/>
-        <c:axId val="51925621"/>
+        <c:axId val="59956049"/>
+        <c:axId val="52322114"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26993672"/>
+        <c:axId val="59956049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,7 +3189,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3176,7 +3202,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3194,7 +3220,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3223,12 +3249,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51925621"/>
+        <c:crossAx val="52322114"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51925621"/>
+        <c:axId val="52322114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3241,7 +3267,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3254,7 +3280,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3272,7 +3298,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3301,7 +3327,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26993672"/>
+        <c:crossAx val="59956049"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3342,16 +3368,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>382680</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247680</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>524880</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3359,8 +3385,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8567640" y="324720"/>
-        <a:ext cx="6367320" cy="4285800"/>
+        <a:off x="434160" y="450000"/>
+        <a:ext cx="11339640" cy="7253280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3372,16 +3398,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>173160</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>-14400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>261360</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>241200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3389,8 +3415,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1810080" y="724680"/>
-        <a:ext cx="6636240" cy="4286160"/>
+        <a:off x="12926160" y="-14400"/>
+        <a:ext cx="12165480" cy="6774840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3410,14 +3436,14 @@
   </sheetPr>
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC10" activeCellId="0" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="23.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
